--- a/InspeccionRecibo.xlsx
+++ b/InspeccionRecibo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="553">
   <si>
     <t>INSPECCIÓN/RECIBO</t>
   </si>
@@ -1648,21 +1648,6 @@
   </si>
   <si>
     <t>165449/78956320</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>0123</t>
-  </si>
-  <si>
-    <t>98745</t>
-  </si>
-  <si>
-    <t>61523/98740</t>
   </si>
   <si>
     <t>AGOSTO</t>
@@ -1829,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5793">
+  <cellXfs count="5748">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -18690,141 +18675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center" horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" horizontal="center" textRotation="180"/>
@@ -19299,8 +19149,8 @@
       <c r="J3" t="s" s="69">
         <v>20</v>
       </c>
-      <c r="K3" t="s" s="5665">
-        <v>549</v>
+      <c r="K3" t="s" s="5621">
+        <v>544</v>
       </c>
     </row>
     <row r="4">
@@ -19334,8 +19184,8 @@
       <c r="J4" t="s" s="113">
         <v>20</v>
       </c>
-      <c r="K4" t="s" s="5666">
-        <v>549</v>
+      <c r="K4" t="s" s="5622">
+        <v>544</v>
       </c>
     </row>
     <row r="5">
@@ -19369,8 +19219,8 @@
       <c r="J5" t="s" s="157">
         <v>20</v>
       </c>
-      <c r="K5" t="s" s="5667">
-        <v>549</v>
+      <c r="K5" t="s" s="5623">
+        <v>544</v>
       </c>
     </row>
     <row r="6">
@@ -19404,8 +19254,8 @@
       <c r="J6" t="s" s="201">
         <v>20</v>
       </c>
-      <c r="K6" t="s" s="5668">
-        <v>549</v>
+      <c r="K6" t="s" s="5624">
+        <v>544</v>
       </c>
     </row>
     <row r="7">
@@ -19439,8 +19289,8 @@
       <c r="J7" t="s" s="245">
         <v>20</v>
       </c>
-      <c r="K7" t="s" s="5669">
-        <v>549</v>
+      <c r="K7" t="s" s="5625">
+        <v>544</v>
       </c>
     </row>
     <row r="8">
@@ -19474,8 +19324,8 @@
       <c r="J8" t="s" s="289">
         <v>20</v>
       </c>
-      <c r="K8" t="s" s="5670">
-        <v>549</v>
+      <c r="K8" t="s" s="5626">
+        <v>544</v>
       </c>
     </row>
     <row r="9">
@@ -19509,8 +19359,8 @@
       <c r="J9" t="s" s="333">
         <v>20</v>
       </c>
-      <c r="K9" t="s" s="5671">
-        <v>549</v>
+      <c r="K9" t="s" s="5627">
+        <v>544</v>
       </c>
     </row>
     <row r="10">
@@ -19544,8 +19394,8 @@
       <c r="J10" t="s" s="377">
         <v>20</v>
       </c>
-      <c r="K10" t="s" s="5672">
-        <v>549</v>
+      <c r="K10" t="s" s="5628">
+        <v>544</v>
       </c>
     </row>
     <row r="11">
@@ -19579,8 +19429,8 @@
       <c r="J11" t="s" s="421">
         <v>20</v>
       </c>
-      <c r="K11" t="s" s="5673">
-        <v>549</v>
+      <c r="K11" t="s" s="5629">
+        <v>544</v>
       </c>
     </row>
     <row r="12">
@@ -19614,8 +19464,8 @@
       <c r="J12" t="s" s="465">
         <v>20</v>
       </c>
-      <c r="K12" t="s" s="5674">
-        <v>549</v>
+      <c r="K12" t="s" s="5630">
+        <v>544</v>
       </c>
     </row>
     <row r="13">
@@ -19649,8 +19499,8 @@
       <c r="J13" t="s" s="509">
         <v>20</v>
       </c>
-      <c r="K13" t="s" s="5675">
-        <v>549</v>
+      <c r="K13" t="s" s="5631">
+        <v>544</v>
       </c>
     </row>
     <row r="14">
@@ -19684,8 +19534,8 @@
       <c r="J14" t="s" s="553">
         <v>20</v>
       </c>
-      <c r="K14" t="s" s="5676">
-        <v>549</v>
+      <c r="K14" t="s" s="5632">
+        <v>544</v>
       </c>
     </row>
     <row r="15">
@@ -19719,8 +19569,8 @@
       <c r="J15" t="s" s="597">
         <v>20</v>
       </c>
-      <c r="K15" t="s" s="5677">
-        <v>549</v>
+      <c r="K15" t="s" s="5633">
+        <v>544</v>
       </c>
     </row>
     <row r="16">
@@ -19754,8 +19604,8 @@
       <c r="J16" t="s" s="641">
         <v>20</v>
       </c>
-      <c r="K16" t="s" s="5678">
-        <v>549</v>
+      <c r="K16" t="s" s="5634">
+        <v>544</v>
       </c>
     </row>
     <row r="17">
@@ -19789,8 +19639,8 @@
       <c r="J17" t="s" s="685">
         <v>20</v>
       </c>
-      <c r="K17" t="s" s="5679">
-        <v>550</v>
+      <c r="K17" t="s" s="5635">
+        <v>545</v>
       </c>
     </row>
     <row r="18">
@@ -19824,8 +19674,8 @@
       <c r="J18" t="s" s="729">
         <v>20</v>
       </c>
-      <c r="K18" t="s" s="5680">
-        <v>550</v>
+      <c r="K18" t="s" s="5636">
+        <v>545</v>
       </c>
     </row>
     <row r="19">
@@ -19859,8 +19709,8 @@
       <c r="J19" t="s" s="773">
         <v>20</v>
       </c>
-      <c r="K19" t="s" s="5681">
-        <v>550</v>
+      <c r="K19" t="s" s="5637">
+        <v>545</v>
       </c>
     </row>
     <row r="20">
@@ -19894,8 +19744,8 @@
       <c r="J20" t="s" s="817">
         <v>20</v>
       </c>
-      <c r="K20" t="s" s="5682">
-        <v>550</v>
+      <c r="K20" t="s" s="5638">
+        <v>545</v>
       </c>
     </row>
     <row r="21">
@@ -19929,8 +19779,8 @@
       <c r="J21" t="s" s="861">
         <v>20</v>
       </c>
-      <c r="K21" t="s" s="5683">
-        <v>550</v>
+      <c r="K21" t="s" s="5639">
+        <v>545</v>
       </c>
     </row>
     <row r="22">
@@ -19964,8 +19814,8 @@
       <c r="J22" t="s" s="905">
         <v>20</v>
       </c>
-      <c r="K22" t="s" s="5684">
-        <v>550</v>
+      <c r="K22" t="s" s="5640">
+        <v>545</v>
       </c>
     </row>
     <row r="23">
@@ -19999,8 +19849,8 @@
       <c r="J23" t="s" s="949">
         <v>20</v>
       </c>
-      <c r="K23" t="s" s="5685">
-        <v>550</v>
+      <c r="K23" t="s" s="5641">
+        <v>545</v>
       </c>
     </row>
     <row r="24">
@@ -20034,8 +19884,8 @@
       <c r="J24" t="s" s="993">
         <v>20</v>
       </c>
-      <c r="K24" t="s" s="5686">
-        <v>551</v>
+      <c r="K24" t="s" s="5642">
+        <v>546</v>
       </c>
     </row>
     <row r="25">
@@ -20069,8 +19919,8 @@
       <c r="J25" t="s" s="1037">
         <v>20</v>
       </c>
-      <c r="K25" t="s" s="5687">
-        <v>551</v>
+      <c r="K25" t="s" s="5643">
+        <v>546</v>
       </c>
     </row>
     <row r="26">
@@ -20104,8 +19954,8 @@
       <c r="J26" t="s" s="1081">
         <v>20</v>
       </c>
-      <c r="K26" t="s" s="5688">
-        <v>551</v>
+      <c r="K26" t="s" s="5644">
+        <v>546</v>
       </c>
     </row>
     <row r="27">
@@ -20139,8 +19989,8 @@
       <c r="J27" t="s" s="1125">
         <v>20</v>
       </c>
-      <c r="K27" t="s" s="5689">
-        <v>551</v>
+      <c r="K27" t="s" s="5645">
+        <v>546</v>
       </c>
     </row>
     <row r="28">
@@ -20174,8 +20024,8 @@
       <c r="J28" t="s" s="1169">
         <v>20</v>
       </c>
-      <c r="K28" t="s" s="5690">
-        <v>551</v>
+      <c r="K28" t="s" s="5646">
+        <v>546</v>
       </c>
     </row>
     <row r="29">
@@ -20209,8 +20059,8 @@
       <c r="J29" t="s" s="1213">
         <v>20</v>
       </c>
-      <c r="K29" t="s" s="5691">
-        <v>551</v>
+      <c r="K29" t="s" s="5647">
+        <v>546</v>
       </c>
     </row>
     <row r="30">
@@ -20244,8 +20094,8 @@
       <c r="J30" t="s" s="1257">
         <v>20</v>
       </c>
-      <c r="K30" t="s" s="5692">
-        <v>551</v>
+      <c r="K30" t="s" s="5648">
+        <v>546</v>
       </c>
     </row>
     <row r="31">
@@ -20279,8 +20129,8 @@
       <c r="J31" t="s" s="1301">
         <v>20</v>
       </c>
-      <c r="K31" t="s" s="5693">
-        <v>551</v>
+      <c r="K31" t="s" s="5649">
+        <v>546</v>
       </c>
     </row>
     <row r="32">
@@ -20314,8 +20164,8 @@
       <c r="J32" t="s" s="1345">
         <v>20</v>
       </c>
-      <c r="K32" t="s" s="5694">
-        <v>551</v>
+      <c r="K32" t="s" s="5650">
+        <v>546</v>
       </c>
     </row>
     <row r="33">
@@ -20349,8 +20199,8 @@
       <c r="J33" t="s" s="1389">
         <v>20</v>
       </c>
-      <c r="K33" t="s" s="5695">
-        <v>551</v>
+      <c r="K33" t="s" s="5651">
+        <v>546</v>
       </c>
     </row>
     <row r="34">
@@ -20384,8 +20234,8 @@
       <c r="J34" t="s" s="1433">
         <v>20</v>
       </c>
-      <c r="K34" t="s" s="5696">
-        <v>551</v>
+      <c r="K34" t="s" s="5652">
+        <v>546</v>
       </c>
     </row>
     <row r="35">
@@ -20419,8 +20269,8 @@
       <c r="J35" t="s" s="1477">
         <v>20</v>
       </c>
-      <c r="K35" t="s" s="5697">
-        <v>551</v>
+      <c r="K35" t="s" s="5653">
+        <v>546</v>
       </c>
     </row>
     <row r="36">
@@ -20454,8 +20304,8 @@
       <c r="J36" t="s" s="1521">
         <v>20</v>
       </c>
-      <c r="K36" t="s" s="5698">
-        <v>551</v>
+      <c r="K36" t="s" s="5654">
+        <v>546</v>
       </c>
     </row>
     <row r="37">
@@ -20489,8 +20339,8 @@
       <c r="J37" t="s" s="1565">
         <v>20</v>
       </c>
-      <c r="K37" t="s" s="5699">
-        <v>551</v>
+      <c r="K37" t="s" s="5655">
+        <v>546</v>
       </c>
     </row>
     <row r="38">
@@ -20524,8 +20374,8 @@
       <c r="J38" t="s" s="1609">
         <v>20</v>
       </c>
-      <c r="K38" t="s" s="5700">
-        <v>551</v>
+      <c r="K38" t="s" s="5656">
+        <v>546</v>
       </c>
     </row>
     <row r="39">
@@ -20559,8 +20409,8 @@
       <c r="J39" t="s" s="1653">
         <v>20</v>
       </c>
-      <c r="K39" t="s" s="5701">
-        <v>552</v>
+      <c r="K39" t="s" s="5657">
+        <v>547</v>
       </c>
     </row>
     <row r="40">
@@ -20594,8 +20444,8 @@
       <c r="J40" t="s" s="1697">
         <v>20</v>
       </c>
-      <c r="K40" t="s" s="5702">
-        <v>552</v>
+      <c r="K40" t="s" s="5658">
+        <v>547</v>
       </c>
     </row>
     <row r="41">
@@ -20629,8 +20479,8 @@
       <c r="J41" t="s" s="1741">
         <v>20</v>
       </c>
-      <c r="K41" t="s" s="5703">
-        <v>552</v>
+      <c r="K41" t="s" s="5659">
+        <v>547</v>
       </c>
     </row>
     <row r="42">
@@ -20664,8 +20514,8 @@
       <c r="J42" t="s" s="1785">
         <v>20</v>
       </c>
-      <c r="K42" t="s" s="5704">
-        <v>552</v>
+      <c r="K42" t="s" s="5660">
+        <v>547</v>
       </c>
     </row>
     <row r="43">
@@ -20699,8 +20549,8 @@
       <c r="J43" t="s" s="1829">
         <v>20</v>
       </c>
-      <c r="K43" t="s" s="5705">
-        <v>552</v>
+      <c r="K43" t="s" s="5661">
+        <v>547</v>
       </c>
     </row>
     <row r="44">
@@ -20734,8 +20584,8 @@
       <c r="J44" t="s" s="1873">
         <v>20</v>
       </c>
-      <c r="K44" t="s" s="5706">
-        <v>552</v>
+      <c r="K44" t="s" s="5662">
+        <v>547</v>
       </c>
     </row>
     <row r="45">
@@ -20769,8 +20619,8 @@
       <c r="J45" t="s" s="1917">
         <v>20</v>
       </c>
-      <c r="K45" t="s" s="5707">
-        <v>552</v>
+      <c r="K45" t="s" s="5663">
+        <v>547</v>
       </c>
     </row>
     <row r="46">
@@ -20804,8 +20654,8 @@
       <c r="J46" t="s" s="1961">
         <v>20</v>
       </c>
-      <c r="K46" t="s" s="5708">
-        <v>552</v>
+      <c r="K46" t="s" s="5664">
+        <v>547</v>
       </c>
     </row>
     <row r="47">
@@ -20839,8 +20689,8 @@
       <c r="J47" t="s" s="2005">
         <v>20</v>
       </c>
-      <c r="K47" t="s" s="5709">
-        <v>552</v>
+      <c r="K47" t="s" s="5665">
+        <v>547</v>
       </c>
     </row>
     <row r="48">
@@ -20874,8 +20724,8 @@
       <c r="J48" t="s" s="2049">
         <v>20</v>
       </c>
-      <c r="K48" t="s" s="5710">
-        <v>552</v>
+      <c r="K48" t="s" s="5666">
+        <v>547</v>
       </c>
     </row>
     <row r="49">
@@ -20909,8 +20759,8 @@
       <c r="J49" t="s" s="2093">
         <v>20</v>
       </c>
-      <c r="K49" t="s" s="5711">
-        <v>552</v>
+      <c r="K49" t="s" s="5667">
+        <v>547</v>
       </c>
     </row>
     <row r="50">
@@ -20944,8 +20794,8 @@
       <c r="J50" t="s" s="2137">
         <v>20</v>
       </c>
-      <c r="K50" t="s" s="5712">
-        <v>552</v>
+      <c r="K50" t="s" s="5668">
+        <v>547</v>
       </c>
     </row>
     <row r="51">
@@ -20979,8 +20829,8 @@
       <c r="J51" t="s" s="2181">
         <v>20</v>
       </c>
-      <c r="K51" t="s" s="5713">
-        <v>552</v>
+      <c r="K51" t="s" s="5669">
+        <v>547</v>
       </c>
     </row>
     <row r="52">
@@ -21014,8 +20864,8 @@
       <c r="J52" t="s" s="2225">
         <v>20</v>
       </c>
-      <c r="K52" t="s" s="5714">
-        <v>552</v>
+      <c r="K52" t="s" s="5670">
+        <v>547</v>
       </c>
     </row>
     <row r="53">
@@ -21049,8 +20899,8 @@
       <c r="J53" t="s" s="2269">
         <v>20</v>
       </c>
-      <c r="K53" t="s" s="5715">
-        <v>552</v>
+      <c r="K53" t="s" s="5671">
+        <v>547</v>
       </c>
     </row>
     <row r="54">
@@ -21084,8 +20934,8 @@
       <c r="J54" t="s" s="2313">
         <v>20</v>
       </c>
-      <c r="K54" t="s" s="5716">
-        <v>552</v>
+      <c r="K54" t="s" s="5672">
+        <v>547</v>
       </c>
     </row>
     <row r="55">
@@ -21119,8 +20969,8 @@
       <c r="J55" t="s" s="2357">
         <v>20</v>
       </c>
-      <c r="K55" t="s" s="5717">
-        <v>552</v>
+      <c r="K55" t="s" s="5673">
+        <v>547</v>
       </c>
     </row>
     <row r="56">
@@ -21154,8 +21004,8 @@
       <c r="J56" t="s" s="2401">
         <v>20</v>
       </c>
-      <c r="K56" t="s" s="5718">
-        <v>552</v>
+      <c r="K56" t="s" s="5674">
+        <v>547</v>
       </c>
     </row>
     <row r="57">
@@ -21189,8 +21039,8 @@
       <c r="J57" t="s" s="2445">
         <v>20</v>
       </c>
-      <c r="K57" t="s" s="5719">
-        <v>552</v>
+      <c r="K57" t="s" s="5675">
+        <v>547</v>
       </c>
     </row>
     <row r="58">
@@ -21224,8 +21074,8 @@
       <c r="J58" t="s" s="2489">
         <v>20</v>
       </c>
-      <c r="K58" t="s" s="5720">
-        <v>552</v>
+      <c r="K58" t="s" s="5676">
+        <v>547</v>
       </c>
     </row>
     <row r="59">
@@ -21259,8 +21109,8 @@
       <c r="J59" t="s" s="2533">
         <v>20</v>
       </c>
-      <c r="K59" t="s" s="5721">
-        <v>552</v>
+      <c r="K59" t="s" s="5677">
+        <v>547</v>
       </c>
     </row>
     <row r="60">
@@ -21294,8 +21144,8 @@
       <c r="J60" t="s" s="2577">
         <v>20</v>
       </c>
-      <c r="K60" t="s" s="5722">
-        <v>553</v>
+      <c r="K60" t="s" s="5678">
+        <v>548</v>
       </c>
     </row>
     <row r="61">
@@ -21329,8 +21179,8 @@
       <c r="J61" t="s" s="2621">
         <v>20</v>
       </c>
-      <c r="K61" t="s" s="5723">
-        <v>553</v>
+      <c r="K61" t="s" s="5679">
+        <v>548</v>
       </c>
     </row>
     <row r="62">
@@ -21364,8 +21214,8 @@
       <c r="J62" t="s" s="2665">
         <v>20</v>
       </c>
-      <c r="K62" t="s" s="5724">
-        <v>553</v>
+      <c r="K62" t="s" s="5680">
+        <v>548</v>
       </c>
     </row>
     <row r="63">
@@ -21399,8 +21249,8 @@
       <c r="J63" t="s" s="2709">
         <v>20</v>
       </c>
-      <c r="K63" t="s" s="5725">
-        <v>553</v>
+      <c r="K63" t="s" s="5681">
+        <v>548</v>
       </c>
     </row>
     <row r="64">
@@ -21434,8 +21284,8 @@
       <c r="J64" t="s" s="2753">
         <v>20</v>
       </c>
-      <c r="K64" t="s" s="5726">
-        <v>553</v>
+      <c r="K64" t="s" s="5682">
+        <v>548</v>
       </c>
     </row>
     <row r="65">
@@ -21469,8 +21319,8 @@
       <c r="J65" t="s" s="2797">
         <v>20</v>
       </c>
-      <c r="K65" t="s" s="5727">
-        <v>553</v>
+      <c r="K65" t="s" s="5683">
+        <v>548</v>
       </c>
     </row>
     <row r="66">
@@ -21504,8 +21354,8 @@
       <c r="J66" t="s" s="2841">
         <v>20</v>
       </c>
-      <c r="K66" t="s" s="5728">
-        <v>553</v>
+      <c r="K66" t="s" s="5684">
+        <v>548</v>
       </c>
     </row>
     <row r="67">
@@ -21539,8 +21389,8 @@
       <c r="J67" t="s" s="2885">
         <v>20</v>
       </c>
-      <c r="K67" t="s" s="5729">
-        <v>553</v>
+      <c r="K67" t="s" s="5685">
+        <v>548</v>
       </c>
     </row>
     <row r="68">
@@ -21574,8 +21424,8 @@
       <c r="J68" t="s" s="2929">
         <v>20</v>
       </c>
-      <c r="K68" t="s" s="5730">
-        <v>553</v>
+      <c r="K68" t="s" s="5686">
+        <v>548</v>
       </c>
     </row>
     <row r="69">
@@ -21609,8 +21459,8 @@
       <c r="J69" t="s" s="2973">
         <v>20</v>
       </c>
-      <c r="K69" t="s" s="5731">
-        <v>553</v>
+      <c r="K69" t="s" s="5687">
+        <v>548</v>
       </c>
     </row>
     <row r="70">
@@ -21644,8 +21494,8 @@
       <c r="J70" t="s" s="3017">
         <v>20</v>
       </c>
-      <c r="K70" t="s" s="5732">
-        <v>553</v>
+      <c r="K70" t="s" s="5688">
+        <v>548</v>
       </c>
     </row>
     <row r="71">
@@ -21679,8 +21529,8 @@
       <c r="J71" t="s" s="3061">
         <v>20</v>
       </c>
-      <c r="K71" t="s" s="5733">
-        <v>553</v>
+      <c r="K71" t="s" s="5689">
+        <v>548</v>
       </c>
     </row>
     <row r="72">
@@ -21714,8 +21564,8 @@
       <c r="J72" t="s" s="3105">
         <v>20</v>
       </c>
-      <c r="K72" t="s" s="5734">
-        <v>553</v>
+      <c r="K72" t="s" s="5690">
+        <v>548</v>
       </c>
     </row>
     <row r="73">
@@ -21749,8 +21599,8 @@
       <c r="J73" t="s" s="3149">
         <v>20</v>
       </c>
-      <c r="K73" t="s" s="5735">
-        <v>554</v>
+      <c r="K73" t="s" s="5691">
+        <v>549</v>
       </c>
     </row>
     <row r="74">
@@ -21784,8 +21634,8 @@
       <c r="J74" t="s" s="3193">
         <v>20</v>
       </c>
-      <c r="K74" t="s" s="5736">
-        <v>554</v>
+      <c r="K74" t="s" s="5692">
+        <v>549</v>
       </c>
     </row>
     <row r="75">
@@ -21819,8 +21669,8 @@
       <c r="J75" t="s" s="3237">
         <v>20</v>
       </c>
-      <c r="K75" t="s" s="5737">
-        <v>554</v>
+      <c r="K75" t="s" s="5693">
+        <v>549</v>
       </c>
     </row>
     <row r="76">
@@ -21854,8 +21704,8 @@
       <c r="J76" t="s" s="3281">
         <v>20</v>
       </c>
-      <c r="K76" t="s" s="5738">
-        <v>554</v>
+      <c r="K76" t="s" s="5694">
+        <v>549</v>
       </c>
     </row>
     <row r="77">
@@ -21889,8 +21739,8 @@
       <c r="J77" t="s" s="3325">
         <v>20</v>
       </c>
-      <c r="K77" t="s" s="5739">
-        <v>554</v>
+      <c r="K77" t="s" s="5695">
+        <v>549</v>
       </c>
     </row>
     <row r="78">
@@ -21924,8 +21774,8 @@
       <c r="J78" t="s" s="3369">
         <v>20</v>
       </c>
-      <c r="K78" t="s" s="5740">
-        <v>554</v>
+      <c r="K78" t="s" s="5696">
+        <v>549</v>
       </c>
     </row>
     <row r="79">
@@ -21959,8 +21809,8 @@
       <c r="J79" t="s" s="3413">
         <v>20</v>
       </c>
-      <c r="K79" t="s" s="5741">
-        <v>554</v>
+      <c r="K79" t="s" s="5697">
+        <v>549</v>
       </c>
     </row>
     <row r="80">
@@ -21994,8 +21844,8 @@
       <c r="J80" t="s" s="3457">
         <v>20</v>
       </c>
-      <c r="K80" t="s" s="5742">
-        <v>554</v>
+      <c r="K80" t="s" s="5698">
+        <v>549</v>
       </c>
     </row>
     <row r="81">
@@ -22029,8 +21879,8 @@
       <c r="J81" t="s" s="3501">
         <v>20</v>
       </c>
-      <c r="K81" t="s" s="5743">
-        <v>554</v>
+      <c r="K81" t="s" s="5699">
+        <v>549</v>
       </c>
     </row>
     <row r="82">
@@ -22064,8 +21914,8 @@
       <c r="J82" t="s" s="3545">
         <v>20</v>
       </c>
-      <c r="K82" t="s" s="5744">
-        <v>554</v>
+      <c r="K82" t="s" s="5700">
+        <v>549</v>
       </c>
     </row>
     <row r="83">
@@ -22099,8 +21949,8 @@
       <c r="J83" t="s" s="3589">
         <v>20</v>
       </c>
-      <c r="K83" t="s" s="5745">
-        <v>554</v>
+      <c r="K83" t="s" s="5701">
+        <v>549</v>
       </c>
     </row>
     <row r="84">
@@ -22134,8 +21984,8 @@
       <c r="J84" t="s" s="3633">
         <v>20</v>
       </c>
-      <c r="K84" t="s" s="5746">
-        <v>554</v>
+      <c r="K84" t="s" s="5702">
+        <v>549</v>
       </c>
     </row>
     <row r="85">
@@ -22169,8 +22019,8 @@
       <c r="J85" t="s" s="3677">
         <v>20</v>
       </c>
-      <c r="K85" t="s" s="5747">
-        <v>555</v>
+      <c r="K85" t="s" s="5703">
+        <v>550</v>
       </c>
     </row>
     <row r="86">
@@ -22204,8 +22054,8 @@
       <c r="J86" t="s" s="3721">
         <v>20</v>
       </c>
-      <c r="K86" t="s" s="5748">
-        <v>555</v>
+      <c r="K86" t="s" s="5704">
+        <v>550</v>
       </c>
     </row>
     <row r="87">
@@ -22239,8 +22089,8 @@
       <c r="J87" t="s" s="3765">
         <v>20</v>
       </c>
-      <c r="K87" t="s" s="5749">
-        <v>555</v>
+      <c r="K87" t="s" s="5705">
+        <v>550</v>
       </c>
     </row>
     <row r="88">
@@ -22274,8 +22124,8 @@
       <c r="J88" t="s" s="3809">
         <v>20</v>
       </c>
-      <c r="K88" t="s" s="5750">
-        <v>555</v>
+      <c r="K88" t="s" s="5706">
+        <v>550</v>
       </c>
     </row>
     <row r="89">
@@ -22309,8 +22159,8 @@
       <c r="J89" t="s" s="3853">
         <v>20</v>
       </c>
-      <c r="K89" t="s" s="5751">
-        <v>555</v>
+      <c r="K89" t="s" s="5707">
+        <v>550</v>
       </c>
     </row>
     <row r="90">
@@ -22344,8 +22194,8 @@
       <c r="J90" t="s" s="3897">
         <v>20</v>
       </c>
-      <c r="K90" t="s" s="5752">
-        <v>555</v>
+      <c r="K90" t="s" s="5708">
+        <v>550</v>
       </c>
     </row>
     <row r="91">
@@ -22379,8 +22229,8 @@
       <c r="J91" t="s" s="3941">
         <v>20</v>
       </c>
-      <c r="K91" t="s" s="5753">
-        <v>555</v>
+      <c r="K91" t="s" s="5709">
+        <v>550</v>
       </c>
     </row>
     <row r="92">
@@ -22414,8 +22264,8 @@
       <c r="J92" t="s" s="3985">
         <v>20</v>
       </c>
-      <c r="K92" t="s" s="5754">
-        <v>555</v>
+      <c r="K92" t="s" s="5710">
+        <v>550</v>
       </c>
     </row>
     <row r="93">
@@ -22449,8 +22299,8 @@
       <c r="J93" t="s" s="4029">
         <v>20</v>
       </c>
-      <c r="K93" t="s" s="5755">
-        <v>555</v>
+      <c r="K93" t="s" s="5711">
+        <v>550</v>
       </c>
     </row>
     <row r="94">
@@ -22484,8 +22334,8 @@
       <c r="J94" t="s" s="4073">
         <v>20</v>
       </c>
-      <c r="K94" t="s" s="5756">
-        <v>555</v>
+      <c r="K94" t="s" s="5712">
+        <v>550</v>
       </c>
     </row>
     <row r="95">
@@ -22519,8 +22369,8 @@
       <c r="J95" t="s" s="4117">
         <v>20</v>
       </c>
-      <c r="K95" t="s" s="5757">
-        <v>555</v>
+      <c r="K95" t="s" s="5713">
+        <v>550</v>
       </c>
     </row>
     <row r="96">
@@ -22554,8 +22404,8 @@
       <c r="J96" t="s" s="4161">
         <v>20</v>
       </c>
-      <c r="K96" t="s" s="5758">
-        <v>555</v>
+      <c r="K96" t="s" s="5714">
+        <v>550</v>
       </c>
     </row>
     <row r="97">
@@ -22589,8 +22439,8 @@
       <c r="J97" t="s" s="4205">
         <v>20</v>
       </c>
-      <c r="K97" t="s" s="5759">
-        <v>555</v>
+      <c r="K97" t="s" s="5715">
+        <v>550</v>
       </c>
     </row>
     <row r="98">
@@ -22624,8 +22474,8 @@
       <c r="J98" t="s" s="4249">
         <v>20</v>
       </c>
-      <c r="K98" t="s" s="5760">
-        <v>556</v>
+      <c r="K98" t="s" s="5716">
+        <v>551</v>
       </c>
     </row>
     <row r="99">
@@ -22659,8 +22509,8 @@
       <c r="J99" t="s" s="4293">
         <v>20</v>
       </c>
-      <c r="K99" t="s" s="5761">
-        <v>556</v>
+      <c r="K99" t="s" s="5717">
+        <v>551</v>
       </c>
     </row>
     <row r="100">
@@ -22694,8 +22544,8 @@
       <c r="J100" t="s" s="4337">
         <v>20</v>
       </c>
-      <c r="K100" t="s" s="5762">
-        <v>556</v>
+      <c r="K100" t="s" s="5718">
+        <v>551</v>
       </c>
     </row>
     <row r="101">
@@ -22729,8 +22579,8 @@
       <c r="J101" t="s" s="4381">
         <v>20</v>
       </c>
-      <c r="K101" t="s" s="5763">
-        <v>556</v>
+      <c r="K101" t="s" s="5719">
+        <v>551</v>
       </c>
     </row>
     <row r="102">
@@ -22764,8 +22614,8 @@
       <c r="J102" t="s" s="4425">
         <v>20</v>
       </c>
-      <c r="K102" t="s" s="5764">
-        <v>556</v>
+      <c r="K102" t="s" s="5720">
+        <v>551</v>
       </c>
     </row>
     <row r="103">
@@ -22799,8 +22649,8 @@
       <c r="J103" t="s" s="4469">
         <v>20</v>
       </c>
-      <c r="K103" t="s" s="5765">
-        <v>556</v>
+      <c r="K103" t="s" s="5721">
+        <v>551</v>
       </c>
     </row>
     <row r="104">
@@ -22834,8 +22684,8 @@
       <c r="J104" t="s" s="4513">
         <v>20</v>
       </c>
-      <c r="K104" t="s" s="5766">
-        <v>556</v>
+      <c r="K104" t="s" s="5722">
+        <v>551</v>
       </c>
     </row>
     <row r="105">
@@ -22869,8 +22719,8 @@
       <c r="J105" t="s" s="4557">
         <v>20</v>
       </c>
-      <c r="K105" t="s" s="5767">
-        <v>556</v>
+      <c r="K105" t="s" s="5723">
+        <v>551</v>
       </c>
     </row>
     <row r="106">
@@ -22904,8 +22754,8 @@
       <c r="J106" t="s" s="4601">
         <v>20</v>
       </c>
-      <c r="K106" t="s" s="5768">
-        <v>556</v>
+      <c r="K106" t="s" s="5724">
+        <v>551</v>
       </c>
     </row>
     <row r="107">
@@ -22939,8 +22789,8 @@
       <c r="J107" t="s" s="4645">
         <v>20</v>
       </c>
-      <c r="K107" t="s" s="5769">
-        <v>556</v>
+      <c r="K107" t="s" s="5725">
+        <v>551</v>
       </c>
     </row>
     <row r="108">
@@ -22974,8 +22824,8 @@
       <c r="J108" t="s" s="4689">
         <v>20</v>
       </c>
-      <c r="K108" t="s" s="5770">
-        <v>556</v>
+      <c r="K108" t="s" s="5726">
+        <v>551</v>
       </c>
     </row>
     <row r="109">
@@ -23009,8 +22859,8 @@
       <c r="J109" t="s" s="4733">
         <v>20</v>
       </c>
-      <c r="K109" t="s" s="5771">
-        <v>549</v>
+      <c r="K109" t="s" s="5727">
+        <v>544</v>
       </c>
     </row>
     <row r="110">
@@ -23044,8 +22894,8 @@
       <c r="J110" t="s" s="4777">
         <v>20</v>
       </c>
-      <c r="K110" t="s" s="5772">
-        <v>549</v>
+      <c r="K110" t="s" s="5728">
+        <v>544</v>
       </c>
     </row>
     <row r="111">
@@ -23079,8 +22929,8 @@
       <c r="J111" t="s" s="4821">
         <v>20</v>
       </c>
-      <c r="K111" t="s" s="5773">
-        <v>549</v>
+      <c r="K111" t="s" s="5729">
+        <v>544</v>
       </c>
     </row>
     <row r="112">
@@ -23114,8 +22964,8 @@
       <c r="J112" t="s" s="4865">
         <v>20</v>
       </c>
-      <c r="K112" t="s" s="5774">
-        <v>549</v>
+      <c r="K112" t="s" s="5730">
+        <v>544</v>
       </c>
     </row>
     <row r="113">
@@ -23149,8 +22999,8 @@
       <c r="J113" t="s" s="4909">
         <v>20</v>
       </c>
-      <c r="K113" t="s" s="5775">
-        <v>549</v>
+      <c r="K113" t="s" s="5731">
+        <v>544</v>
       </c>
     </row>
     <row r="114">
@@ -23184,8 +23034,8 @@
       <c r="J114" t="s" s="4953">
         <v>20</v>
       </c>
-      <c r="K114" t="s" s="5776">
-        <v>549</v>
+      <c r="K114" t="s" s="5732">
+        <v>544</v>
       </c>
     </row>
     <row r="115">
@@ -23219,8 +23069,8 @@
       <c r="J115" t="s" s="4997">
         <v>20</v>
       </c>
-      <c r="K115" t="s" s="5777">
-        <v>549</v>
+      <c r="K115" t="s" s="5733">
+        <v>544</v>
       </c>
     </row>
     <row r="116">
@@ -23254,8 +23104,8 @@
       <c r="J116" t="s" s="5041">
         <v>20</v>
       </c>
-      <c r="K116" t="s" s="5778">
-        <v>549</v>
+      <c r="K116" t="s" s="5734">
+        <v>544</v>
       </c>
     </row>
     <row r="117">
@@ -23289,8 +23139,8 @@
       <c r="J117" t="s" s="5085">
         <v>20</v>
       </c>
-      <c r="K117" t="s" s="5779">
-        <v>549</v>
+      <c r="K117" t="s" s="5735">
+        <v>544</v>
       </c>
     </row>
     <row r="118">
@@ -23324,8 +23174,8 @@
       <c r="J118" t="s" s="5129">
         <v>20</v>
       </c>
-      <c r="K118" t="s" s="5780">
-        <v>549</v>
+      <c r="K118" t="s" s="5736">
+        <v>544</v>
       </c>
     </row>
     <row r="119">
@@ -23359,8 +23209,8 @@
       <c r="J119" t="s" s="5173">
         <v>20</v>
       </c>
-      <c r="K119" t="s" s="5781">
-        <v>549</v>
+      <c r="K119" t="s" s="5737">
+        <v>544</v>
       </c>
     </row>
     <row r="120">
@@ -23394,8 +23244,8 @@
       <c r="J120" t="s" s="5217">
         <v>20</v>
       </c>
-      <c r="K120" t="s" s="5782">
-        <v>549</v>
+      <c r="K120" t="s" s="5738">
+        <v>544</v>
       </c>
     </row>
     <row r="121">
@@ -23429,8 +23279,8 @@
       <c r="J121" t="s" s="5261">
         <v>20</v>
       </c>
-      <c r="K121" t="s" s="5783">
-        <v>549</v>
+      <c r="K121" t="s" s="5739">
+        <v>544</v>
       </c>
     </row>
     <row r="122">
@@ -23464,8 +23314,8 @@
       <c r="J122" t="s" s="5305">
         <v>20</v>
       </c>
-      <c r="K122" t="s" s="5784">
-        <v>549</v>
+      <c r="K122" t="s" s="5740">
+        <v>544</v>
       </c>
     </row>
     <row r="123">
@@ -23499,8 +23349,8 @@
       <c r="J123" t="s" s="5349">
         <v>20</v>
       </c>
-      <c r="K123" t="s" s="5785">
-        <v>549</v>
+      <c r="K123" t="s" s="5741">
+        <v>544</v>
       </c>
     </row>
     <row r="124">
@@ -23534,8 +23384,8 @@
       <c r="J124" t="s" s="5393">
         <v>20</v>
       </c>
-      <c r="K124" t="s" s="5786">
-        <v>549</v>
+      <c r="K124" t="s" s="5742">
+        <v>544</v>
       </c>
     </row>
     <row r="125">
@@ -23569,8 +23419,8 @@
       <c r="J125" t="s" s="5437">
         <v>20</v>
       </c>
-      <c r="K125" t="s" s="5787">
-        <v>549</v>
+      <c r="K125" t="s" s="5743">
+        <v>544</v>
       </c>
     </row>
     <row r="126">
@@ -23604,8 +23454,8 @@
       <c r="J126" t="s" s="5481">
         <v>20</v>
       </c>
-      <c r="K126" t="s" s="5788">
-        <v>549</v>
+      <c r="K126" t="s" s="5744">
+        <v>544</v>
       </c>
     </row>
     <row r="127">
@@ -23639,8 +23489,8 @@
       <c r="J127" t="s" s="5525">
         <v>20</v>
       </c>
-      <c r="K127" t="s" s="5789">
-        <v>557</v>
+      <c r="K127" t="s" s="5745">
+        <v>552</v>
       </c>
     </row>
     <row r="128">
@@ -23674,8 +23524,8 @@
       <c r="J128" t="s" s="5569">
         <v>20</v>
       </c>
-      <c r="K128" t="s" s="5790">
-        <v>557</v>
+      <c r="K128" t="s" s="5746">
+        <v>552</v>
       </c>
     </row>
     <row r="129">
@@ -23709,43 +23559,8 @@
       <c r="J129" t="s" s="5613">
         <v>20</v>
       </c>
-      <c r="K129" t="s" s="5791">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="5621">
-        <v>544</v>
-      </c>
-      <c r="B130" t="s" s="5625">
-        <v>534</v>
-      </c>
-      <c r="C130" t="s" s="5629">
-        <v>36</v>
-      </c>
-      <c r="D130" t="s" s="5633">
-        <v>545</v>
-      </c>
-      <c r="E130" t="s" s="5637">
-        <v>546</v>
-      </c>
-      <c r="F130" t="s" s="5641">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s" s="5645">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s" s="5649">
-        <v>547</v>
-      </c>
-      <c r="I130" t="s" s="5653">
-        <v>548</v>
-      </c>
-      <c r="J130" t="s" s="5657">
-        <v>20</v>
-      </c>
-      <c r="K130" t="s" s="5792">
-        <v>557</v>
+      <c r="K129" t="s" s="5747">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -23760,7 +23575,7 @@
     <mergeCell ref="K85:K97"/>
     <mergeCell ref="K98:K108"/>
     <mergeCell ref="K109:K126"/>
-    <mergeCell ref="K127:K130"/>
+    <mergeCell ref="K127:K129"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
